--- a/Data/Vaccine(Children)CC.xlsx
+++ b/Data/Vaccine(Children)CC.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24923"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>Question</t>
   </si>
@@ -46,6 +46,20 @@
   </si>
   <si>
     <t>Dates Used</t>
+  </si>
+  <si>
+    <t>Do you have a child between the ages of 5 and 18?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Yes 
+• No
+</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>Has your child age 5 or older received the COVID-19 vaccine?</t>
   </si>
   <si>
     <t>Why has your child age 5 or older not yet received the COVID-19 vaccine?</t>
@@ -58,10 +72,16 @@
 • Other, please specify  __________________________</t>
   </si>
   <si>
-    <t>12/07/2021-12/21/2021</t>
+    <t>12/07/2021-12/21/2021 48</t>
   </si>
   <si>
     <t>How likely are you to get the COVID-19 vaccine for your child age 5-12?</t>
+  </si>
+  <si>
+    <t>• Very likely 
+• Somewhat likely 
+• Not very likely 
+• Not at all likely</t>
   </si>
   <si>
     <t>• Already received 
@@ -71,7 +91,26 @@
 • Not at all likely</t>
   </si>
   <si>
+    <t>12/07/2021-12/21/2021</t>
+  </si>
+  <si>
     <t xml:space="preserve">When would you vaccinate (for COVID-19) your child between the ages of 5-12 years? Select the best answer. </t>
+  </si>
+  <si>
+    <t>• In a few weeks, I am planning to "wait and see" if the vaccine is safe and effective before my child is vaccinated 
+• In a few months, I am planning to "wait and see" if the vaccine is safe and effective before my child is vaccinated 
+• If my child begins to attend a center, program or school 
+• I am unlikely to ever have my child receive the vaccine
+• Other, please specify</t>
+  </si>
+  <si>
+    <t>Once it becomes available, how likely are you to get the COVID-19 vaccine for your child(ren) under the age of 5?</t>
+  </si>
+  <si>
+    <t>How do you feel about the COVID-19 vaccine in terms of its safety and effectiveness for children under the age of 5?</t>
+  </si>
+  <si>
+    <t>[Free response]</t>
   </si>
   <si>
     <t xml:space="preserve">• In a few weeks, I am planning to "wait and see" if the vaccine is safe and effective before my child is vaccinated 
@@ -96,7 +135,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -125,6 +164,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -140,7 +186,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -176,11 +222,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFA6A6A6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFA6A6A6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -211,6 +275,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1373,10 +1446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95" customHeight="1"/>
@@ -1406,47 +1479,47 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="220.5">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:5" ht="47.25">
+      <c r="A2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="78.75">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:5" ht="47.25">
+      <c r="A3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>9</v>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="236.25">
+    <row r="4" spans="1:5" ht="220.5">
       <c r="A4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="170.1" customHeight="1">
-      <c r="A5" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="63">
+      <c r="A5" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -1458,68 +1531,146 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="213" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" s="6"/>
+    <row r="6" spans="1:5" ht="78.75">
+      <c r="A6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" ht="102" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="6"/>
+      <c r="E6" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="236.25">
+      <c r="A7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" ht="153" customHeight="1">
-      <c r="A8" s="11"/>
-      <c r="B8" s="6"/>
+      <c r="E7" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="63">
+      <c r="A8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" ht="153" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="6"/>
+      <c r="E8" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="63">
+      <c r="A9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" ht="153" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="6"/>
+      <c r="E9" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="236.25">
+      <c r="A10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" ht="102" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="6"/>
+      <c r="E10" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="170.1" customHeight="1">
+      <c r="A11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" ht="170.1" customHeight="1">
-      <c r="A12" s="5"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="213" customHeight="1">
+      <c r="A12" s="8"/>
       <c r="B12" s="6"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
+      <c r="D12" s="2"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" ht="102" customHeight="1">
-      <c r="A13" s="5"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="6"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
+      <c r="D13" s="2"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" ht="76.5" customHeight="1">
-      <c r="A14" s="7"/>
-    </row>
-    <row r="15" spans="1:5" ht="160.5" customHeight="1">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
+    <row r="14" spans="1:5" ht="153" customHeight="1">
+      <c r="A14" s="11"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" ht="153" customHeight="1">
+      <c r="A15" s="8"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" ht="153" customHeight="1">
+      <c r="A16" s="8"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" ht="102" customHeight="1">
+      <c r="A17" s="8"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" ht="170.1" customHeight="1">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" ht="102" customHeight="1">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" ht="76.5" customHeight="1">
+      <c r="A20" s="7"/>
+    </row>
+    <row r="21" spans="1:5" ht="160.5" customHeight="1">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
